--- a/MAD/Examenopdrachten/Examenopdracht 4.xlsx
+++ b/MAD/Examenopdrachten/Examenopdracht 4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\School\Year 2\Periode-6\MAD\Examenopdrachten\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\School\Year 2\Periode 6\Periode-6\MAD\Examenopdrachten\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2669E251-8789-4340-9D0D-63268620ECEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B9C751-6A1B-4689-8A76-0FA8E49F8014}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test 1" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="35">
   <si>
     <t>Opdracht 4 Testrapport- template</t>
   </si>
@@ -104,25 +104,63 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>knop op het beginscherm heeft niet de juiste positie</t>
-  </si>
-  <si>
-    <t>knop moet precies in het miden van het scherm staan</t>
-  </si>
-  <si>
-    <t>knop op het beginscherm werkt nog niet</t>
-  </si>
-  <si>
-    <t>knop moet je verder leiden naar het volgende scherm</t>
-  </si>
-  <si>
-    <t>Fout melding bij modale bootstrap</t>
-  </si>
-  <si>
     <t>Krijgen van een popup</t>
   </si>
   <si>
     <t>Vertical Responsiveness</t>
+  </si>
+  <si>
+    <t>Bootstrap Css was gestopt met werken</t>
+  </si>
+  <si>
+    <t>dat je niet hoeft te scrollen</t>
+  </si>
+  <si>
+    <t>camera beeld krijgen bij het 'Runnen' van de app</t>
+  </si>
+  <si>
+    <t>werkende bootstrap styling</t>
+  </si>
+  <si>
+    <t>Kon Niet opslaan als webapp op de telefoon</t>
+  </si>
+  <si>
+    <t>Website als webapp kunnen opslaan</t>
+  </si>
+  <si>
+    <t>Bootstrap met een "link" tag gelinkt waardoor bootstrap niet goed werkte</t>
+  </si>
+  <si>
+    <t>werkende bootstrap</t>
+  </si>
+  <si>
+    <t>{  "name": "Distance Calculator",
+    "short_name": "DC",
+    "start_url": ".",
+    "display":"standalone",
+    "background_color":"#fff",
+    "description": "PWA App",
+    "icons": [{
+        "src": "img/abc.jpg",
+        "sizes": "709x709",
+        "type": "image/jpg"
+    }]
+}</t>
+  </si>
+  <si>
+    <t>&lt;link href="https://cdn.jsdelivr.net/npm/bootstrap@5.0.2/dist/css/bootstrap.min.css" rel="stylesheet" integrity="sha384-EVSTQN3/azprG1Anm3QDgpJLIm9Nao0Yz1ztcQTwFspd3yD65VohhpuuCOmLASjC" crossorigin="anonymous"&gt;</t>
+  </si>
+  <si>
+    <t>Video werkt niet door verkeerde ID</t>
+  </si>
+  <si>
+    <t>&lt;script src="https://cdnjs.cloudflare.com/ajax/libs/twitter-bootstrap/4.0.0-beta/js/bootstrap.min.js"&gt;&lt;/script&gt;</t>
+  </si>
+  <si>
+    <t>Fout melding bij modale bootstrap door verkeerde Jquery link</t>
+  </si>
+  <si>
+    <t>&lt;script src="https://cdnjs.cloudflare.com/ajax/libs/jquery/3.2.1/jquery.min.js"&gt;&lt;/script&gt;</t>
   </si>
 </sst>
 </file>
@@ -132,7 +170,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-413]d\ mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,8 +237,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,8 +308,23 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -334,12 +408,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -395,10 +502,25 @@
     <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="7" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="8" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Note" xfId="4" builtinId="10"/>
   </cellStyles>
   <dxfs count="96">
     <dxf>
@@ -1627,6 +1749,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>111412</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>392748</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>239415</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BB16BD4-C919-4728-954F-6504B71027A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9036337" y="1771650"/>
+          <a:ext cx="281336" cy="163215"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1958,23 +2135,23 @@
       <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="6" width="27.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
-    <col min="11" max="12" width="3.44140625" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" customWidth="1"/>
-    <col min="14" max="14" width="3.44140625" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="12" width="3.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="3.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1991,7 +2168,7 @@
       </c>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2006,7 +2183,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
@@ -2035,7 +2212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="18"/>
       <c r="C4" s="17"/>
       <c r="D4" s="13"/>
@@ -2050,7 +2227,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18"/>
       <c r="C5" s="17"/>
       <c r="D5" s="13"/>
@@ -2065,7 +2242,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18"/>
       <c r="C6" s="17"/>
       <c r="D6" s="13"/>
@@ -2074,7 +2251,7 @@
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
     </row>
-    <row r="7" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18"/>
       <c r="C7" s="17"/>
       <c r="D7" s="13"/>
@@ -2083,7 +2260,7 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18"/>
       <c r="C8" s="17"/>
       <c r="D8" s="13"/>
@@ -2094,7 +2271,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="18"/>
       <c r="C9" s="17"/>
       <c r="D9" s="13"/>
@@ -2105,7 +2282,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="18"/>
       <c r="C10" s="17"/>
       <c r="D10" s="13"/>
@@ -2114,7 +2291,7 @@
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="18"/>
       <c r="C11" s="17"/>
       <c r="D11" s="13"/>
@@ -2123,7 +2300,7 @@
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="18"/>
       <c r="C12" s="17"/>
       <c r="D12" s="13"/>
@@ -2132,7 +2309,7 @@
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="17"/>
       <c r="D13" s="13"/>
@@ -2141,7 +2318,7 @@
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <conditionalFormatting sqref="G4:G10">
     <cfRule type="containsText" dxfId="95" priority="34" operator="containsText" text="Minor">
@@ -2301,27 +2478,27 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
     <col min="4" max="4" width="65" customWidth="1"/>
-    <col min="5" max="6" width="27.5546875" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="3.44140625" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" customWidth="1"/>
-    <col min="11" max="12" width="3.44140625" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" customWidth="1"/>
-    <col min="14" max="14" width="3.44140625" customWidth="1"/>
-    <col min="15" max="15" width="10.44140625" customWidth="1"/>
+    <col min="5" max="6" width="27.5703125" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="3.42578125" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" customWidth="1"/>
+    <col min="11" max="12" width="3.42578125" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="3.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>17</v>
       </c>
@@ -2333,7 +2510,7 @@
       <c r="H1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
@@ -2348,7 +2525,7 @@
       </c>
       <c r="H2" s="5"/>
     </row>
-    <row r="3" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>6</v>
       </c>
@@ -2377,22 +2554,28 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="18">
         <v>1</v>
       </c>
       <c r="C4" s="17">
-        <v>44706</v>
+        <v>44586</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
+        <v>19</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="J4" s="14" t="s">
         <v>13</v>
       </c>
@@ -2400,7 +2583,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="18">
         <v>2</v>
       </c>
@@ -2408,12 +2591,18 @@
         <v>44586</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="13"/>
+        <v>20</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
+      <c r="G5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>14</v>
+      </c>
       <c r="J5" s="15" t="s">
         <v>15</v>
       </c>
@@ -2421,107 +2610,149 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="18">
         <v>3</v>
       </c>
       <c r="C6" s="17">
         <v>44586</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="D6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
+      <c r="G6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="7" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C7" s="17">
-        <v>44333</v>
+        <v>44586</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="21" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" s="17">
-        <v>44333</v>
+        <v>44586</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>14</v>
+      <c r="H8" s="21" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="18"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+    <row r="9" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="18">
+        <v>6</v>
+      </c>
+      <c r="C9" s="17">
+        <v>44586</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="10" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18"/>
-      <c r="C10" s="17"/>
+    <row r="10" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
+        <v>7</v>
+      </c>
+      <c r="C10" s="17">
+        <v>44586</v>
+      </c>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
       <c r="H10" s="13"/>
     </row>
-    <row r="11" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="18"/>
-      <c r="C11" s="17"/>
+    <row r="11" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="18">
+        <v>8</v>
+      </c>
+      <c r="C11" s="17">
+        <v>44586</v>
+      </c>
       <c r="D11" s="13"/>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
     </row>
-    <row r="12" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="18"/>
-      <c r="C12" s="17"/>
+    <row r="12" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="18">
+        <v>9</v>
+      </c>
+      <c r="C12" s="17">
+        <v>44586</v>
+      </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
       <c r="G12" s="13"/>
       <c r="H12" s="13"/>
     </row>
-    <row r="13" spans="2:13" ht="24.9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="18"/>
-      <c r="C13" s="17"/>
+    <row r="13" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="18">
+        <v>10</v>
+      </c>
+      <c r="C13" s="17">
+        <v>44586</v>
+      </c>
       <c r="D13" s="13"/>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13"/>
     </row>
-    <row r="14" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="G4:G10">
@@ -2666,28 +2897,14 @@
   </dataValidations>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0" footer="0"/>
   <pageSetup scale="44" fitToHeight="0" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009013C6F3D893D0478451F9FB56532CF3" ma:contentTypeVersion="12" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c08082e7ac79fa43a5c276f8ba87b9ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d1b27d1f-275f-44cf-bc73-ceff9e7f3a80" xmlns:ns3="2a97f98b-0b47-4faf-8266-a4a934f36a81" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fea1486219336ae74a35848971bfc12" ns2:_="" ns3:_="">
     <xsd:import namespace="d1b27d1f-275f-44cf-bc73-ceff9e7f3a80"/>
@@ -2904,24 +3121,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54336508-D1A7-438C-B6B6-78153A13427D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96444A5B-FD72-4D1C-991D-6F303A442679}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E12AC38-1809-4891-8479-2E171E80031C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2938,4 +3153,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96444A5B-FD72-4D1C-991D-6F303A442679}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54336508-D1A7-438C-B6B6-78153A13427D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>